--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>0.2074248447425</v>
+        <v>0.64678120909875</v>
       </c>
       <c r="R2">
-        <v>0.8296993789699999</v>
+        <v>2.587124836395</v>
       </c>
       <c r="S2">
-        <v>6.182767971294542E-05</v>
+        <v>0.0005841054959624007</v>
       </c>
       <c r="T2">
-        <v>2.801960677618065E-05</v>
+        <v>0.0003210976144409501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>0.007362348530166666</v>
+        <v>0.0422124541575</v>
       </c>
       <c r="R3">
-        <v>0.044174091181</v>
+        <v>0.253274724945</v>
       </c>
       <c r="S3">
-        <v>2.194514969618547E-06</v>
+        <v>3.812189674745499E-05</v>
       </c>
       <c r="T3">
-        <v>1.491794131656839E-06</v>
+        <v>3.14348611377215E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>31.575435083863</v>
+        <v>296.0164743202425</v>
       </c>
       <c r="R4">
-        <v>189.452610503178</v>
+        <v>1776.098845921455</v>
       </c>
       <c r="S4">
-        <v>0.009411774609668931</v>
+        <v>0.2673312816041747</v>
       </c>
       <c r="T4">
-        <v>0.00639796507454286</v>
+        <v>0.2204381846650212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H5">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I5">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J5">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>0.175777338594</v>
+        <v>0.558151382745</v>
       </c>
       <c r="R5">
-        <v>1.054664031564</v>
+        <v>2.23260553098</v>
       </c>
       <c r="S5">
-        <v>5.239442268777087E-05</v>
+        <v>0.0005040642579809266</v>
       </c>
       <c r="T5">
-        <v>3.561684170728199E-05</v>
+        <v>0.0002770969146522837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H6">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I6">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J6">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>38.58386967164034</v>
+        <v>40.893852717135</v>
       </c>
       <c r="R6">
-        <v>231.503218029842</v>
+        <v>245.36311630281</v>
       </c>
       <c r="S6">
-        <v>0.01150079750140666</v>
+        <v>0.03693107311580626</v>
       </c>
       <c r="T6">
-        <v>0.007818047477231064</v>
+        <v>0.03045292218152583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H7">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I7">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J7">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>0.28063631883</v>
+        <v>137.6737131834075</v>
       </c>
       <c r="R7">
-        <v>1.68381791298</v>
+        <v>826.0422791004451</v>
       </c>
       <c r="S7">
-        <v>8.365002012165493E-05</v>
+        <v>0.1243325739658304</v>
       </c>
       <c r="T7">
-        <v>5.686386780590164E-05</v>
+        <v>0.1025231567936684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
         <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J8">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>0.009960920505999999</v>
+        <v>0.152621692749</v>
       </c>
       <c r="R8">
-        <v>0.08964828455399999</v>
+        <v>0.915730156494</v>
       </c>
       <c r="S8">
-        <v>2.969078286912139E-06</v>
+        <v>0.0001378320338990629</v>
       </c>
       <c r="T8">
-        <v>3.027493746567038E-06</v>
+        <v>0.0001136546503614361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
         <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J9">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>42.720118115028</v>
+        <v>0.009960920506</v>
       </c>
       <c r="R9">
-        <v>384.481063035252</v>
+        <v>0.08964828455400001</v>
       </c>
       <c r="S9">
-        <v>0.01273370016689214</v>
+        <v>8.995667051778642E-06</v>
       </c>
       <c r="T9">
-        <v>0.01298423076139872</v>
+        <v>1.112657955428397E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
         <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J10">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>0.237818691864</v>
+        <v>69.85134193261402</v>
       </c>
       <c r="R10">
-        <v>2.140368226776</v>
+        <v>628.662077393526</v>
       </c>
       <c r="S10">
-        <v>7.08872552300691E-05</v>
+        <v>0.06308246459423553</v>
       </c>
       <c r="T10">
-        <v>7.228193438561444E-05</v>
+        <v>0.07802557128315281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,51 +1101,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
         <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J11">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>52.202209259492</v>
+        <v>0.131707612476</v>
       </c>
       <c r="R11">
-        <v>469.819883335428</v>
+        <v>0.7902456748560001</v>
       </c>
       <c r="S11">
-        <v>0.01556005250195915</v>
+        <v>0.0001189446125290444</v>
       </c>
       <c r="T11">
-        <v>0.01586619047857061</v>
+        <v>9.808030808908309E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.8756340000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.626902</v>
+      </c>
+      <c r="I12">
+        <v>0.1014018019313074</v>
+      </c>
+      <c r="J12">
+        <v>0.1253162062416287</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.540639</v>
-      </c>
-      <c r="H12">
-        <v>10.621917</v>
-      </c>
-      <c r="I12">
-        <v>0.1150430856889177</v>
-      </c>
-      <c r="J12">
-        <v>0.1171915486778959</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>1.134757096305</v>
+        <v>9.649768634148002</v>
       </c>
       <c r="R12">
-        <v>6.808542577829999</v>
+        <v>86.84791770733202</v>
       </c>
       <c r="S12">
-        <v>0.0003382400907154315</v>
+        <v>0.008714667053833444</v>
       </c>
       <c r="T12">
-        <v>0.0002299298885657932</v>
+        <v>0.01077901568671367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.8756340000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.626902</v>
+      </c>
+      <c r="I13">
+        <v>0.1014018019313074</v>
+      </c>
+      <c r="J13">
+        <v>0.1253162062416287</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.540639</v>
-      </c>
-      <c r="H13">
-        <v>10.621917</v>
-      </c>
-      <c r="I13">
-        <v>0.1150430856889177</v>
-      </c>
-      <c r="J13">
-        <v>0.1171915486778959</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>0.040277129051</v>
+        <v>32.48702166590601</v>
       </c>
       <c r="R13">
-        <v>0.362494161459</v>
+        <v>292.383194993154</v>
       </c>
       <c r="S13">
-        <v>1.200551186533907E-05</v>
+        <v>0.02933889796975853</v>
       </c>
       <c r="T13">
-        <v>1.224171563844183E-05</v>
+        <v>0.03628875773375739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H14">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I14">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J14">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>172.739427983238</v>
+        <v>0.1827292603455</v>
       </c>
       <c r="R14">
-        <v>1554.654851849142</v>
+        <v>1.096375562073</v>
       </c>
       <c r="S14">
-        <v>0.05148890452541226</v>
+        <v>0.0001650220565153354</v>
       </c>
       <c r="T14">
-        <v>0.05250192868117044</v>
+        <v>0.0001360752185439753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H15">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I15">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J15">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>0.9616233898440001</v>
+        <v>0.01192590387144444</v>
       </c>
       <c r="R15">
-        <v>8.654610508596001</v>
+        <v>0.107333134843</v>
       </c>
       <c r="S15">
-        <v>0.0002866336625468365</v>
+        <v>1.077023558760565E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002922730682924001</v>
+        <v>1.332151161154642E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H16">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I16">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J16">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.61647133333334</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N16">
-        <v>178.849414</v>
+        <v>239.316913</v>
       </c>
       <c r="O16">
-        <v>0.546902071703026</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P16">
-        <v>0.5474385827988417</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q16">
-        <v>211.080403445182</v>
+        <v>83.63086410316856</v>
       </c>
       <c r="R16">
-        <v>1899.723631006638</v>
+        <v>752.677776928517</v>
       </c>
       <c r="S16">
-        <v>0.06291730189837781</v>
+        <v>0.07552669537634502</v>
       </c>
       <c r="T16">
-        <v>0.06415517532422881</v>
+        <v>0.09341761758633761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H17">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I17">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J17">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.320495</v>
+        <v>0.150414</v>
       </c>
       <c r="N17">
-        <v>0.6409899999999999</v>
+        <v>0.300828</v>
       </c>
       <c r="O17">
-        <v>0.002940116641429889</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P17">
-        <v>0.001962000597822644</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q17">
-        <v>0.335069510125</v>
+        <v>0.157689475042</v>
       </c>
       <c r="R17">
-        <v>1.3402780405</v>
+        <v>0.946136850252</v>
       </c>
       <c r="S17">
-        <v>9.987506742164786E-05</v>
+        <v>0.000142408727606363</v>
       </c>
       <c r="T17">
-        <v>4.526225355523352E-05</v>
+        <v>0.0001174285373773928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H18">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I18">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J18">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01137566666666667</v>
+        <v>11.020322</v>
       </c>
       <c r="N18">
-        <v>0.034127</v>
+        <v>33.060966</v>
       </c>
       <c r="O18">
-        <v>0.0001043566572771055</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P18">
-        <v>0.0001044590311890878</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q18">
-        <v>0.01189297510833333</v>
+        <v>11.55337130169933</v>
       </c>
       <c r="R18">
-        <v>0.07135785065</v>
+        <v>103.980341715294</v>
       </c>
       <c r="S18">
-        <v>3.544970983321192E-06</v>
+        <v>0.01043380292946408</v>
       </c>
       <c r="T18">
-        <v>2.409811271750658E-06</v>
+        <v>0.0129053840788215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H19">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I19">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J19">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.78764200000001</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N19">
-        <v>146.362926</v>
+        <v>111.303427</v>
       </c>
       <c r="O19">
-        <v>0.4475619218406646</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P19">
-        <v>0.4480009802197716</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q19">
-        <v>51.00626001995001</v>
+        <v>38.89571222094922</v>
       </c>
       <c r="R19">
-        <v>306.0375601197001</v>
+        <v>350.061409988543</v>
       </c>
       <c r="S19">
-        <v>0.01520357270501324</v>
+        <v>0.03512656050921172</v>
       </c>
       <c r="T19">
-        <v>0.01033513138691381</v>
+        <v>0.04344741392989156</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H20">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I20">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J20">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.271596</v>
+        <v>0.1742985</v>
       </c>
       <c r="N20">
-        <v>0.8147880000000001</v>
+        <v>0.348597</v>
       </c>
       <c r="O20">
-        <v>0.002491533157602434</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P20">
-        <v>0.00249397735237479</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q20">
-        <v>0.2839468281</v>
+        <v>0.21489514797825</v>
       </c>
       <c r="R20">
-        <v>1.7036809686</v>
+        <v>0.8595805919130001</v>
       </c>
       <c r="S20">
-        <v>8.463679249738646E-05</v>
+        <v>0.0001940709396376182</v>
       </c>
       <c r="T20">
-        <v>5.753465896466656E-05</v>
+        <v>0.0001066857206116138</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H21">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I21">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J21">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>59.61647133333334</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N21">
-        <v>178.849414</v>
+        <v>0.034127</v>
       </c>
       <c r="O21">
-        <v>0.546902071703026</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P21">
-        <v>0.5474385827988417</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q21">
-        <v>62.32753036721669</v>
+        <v>0.0140252243805</v>
       </c>
       <c r="R21">
-        <v>373.9651822033001</v>
+        <v>0.084151346283</v>
       </c>
       <c r="S21">
-        <v>0.01857813411709202</v>
+        <v>1.266612345490255E-05</v>
       </c>
       <c r="T21">
-        <v>0.01262910111651185</v>
+        <v>1.044433425219536E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.2329145</v>
+      </c>
+      <c r="H22">
+        <v>2.465829</v>
+      </c>
+      <c r="I22">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J22">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.243757666666667</v>
-      </c>
-      <c r="H22">
-        <v>3.731273</v>
-      </c>
-      <c r="I22">
-        <v>0.04041240008444284</v>
-      </c>
-      <c r="J22">
-        <v>0.04116711337605242</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.320495</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N22">
-        <v>0.6409899999999999</v>
+        <v>239.316913</v>
       </c>
       <c r="O22">
-        <v>0.002940116641429889</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P22">
-        <v>0.001962000597822644</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q22">
-        <v>0.3986181133783332</v>
+        <v>98.35243071097952</v>
       </c>
       <c r="R22">
-        <v>2.39170868027</v>
+        <v>590.1145842658771</v>
       </c>
       <c r="S22">
-        <v>0.000118817170008393</v>
+        <v>0.08882168268245591</v>
       </c>
       <c r="T22">
-        <v>8.07699010544474E-05</v>
+        <v>0.07324129960370254</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H23">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I23">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J23">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01137566666666667</v>
+        <v>0.150414</v>
       </c>
       <c r="N23">
-        <v>0.034127</v>
+        <v>0.300828</v>
       </c>
       <c r="O23">
-        <v>0.0001043566572771055</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P23">
-        <v>0.0001044590311890878</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q23">
-        <v>0.01414857263011111</v>
+        <v>0.185447601603</v>
       </c>
       <c r="R23">
-        <v>0.127337153671</v>
+        <v>0.741790406412</v>
       </c>
       <c r="S23">
-        <v>4.217302985357473E-06</v>
+        <v>0.0001674769795187721</v>
       </c>
       <c r="T23">
-        <v>4.300276780113772E-06</v>
+        <v>9.20663458381758E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H24">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I24">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J24">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.78764200000001</v>
+        <v>11.020322</v>
       </c>
       <c r="N24">
-        <v>146.362926</v>
+        <v>33.060966</v>
       </c>
       <c r="O24">
-        <v>0.4475619218406646</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P24">
-        <v>0.4480009802197716</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q24">
-        <v>60.68000377608867</v>
+        <v>13.587114788469</v>
       </c>
       <c r="R24">
-        <v>546.1200339847981</v>
+        <v>81.52268873081401</v>
       </c>
       <c r="S24">
-        <v>0.01808705144798707</v>
+        <v>0.01227046845296498</v>
       </c>
       <c r="T24">
-        <v>0.01844290714528996</v>
+        <v>0.01011808185906954</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.2329145</v>
+      </c>
+      <c r="H25">
+        <v>2.465829</v>
+      </c>
+      <c r="I25">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J25">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.243757666666667</v>
-      </c>
-      <c r="H25">
-        <v>3.731273</v>
-      </c>
-      <c r="I25">
-        <v>0.04041240008444284</v>
-      </c>
-      <c r="J25">
-        <v>0.04116711337605242</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.271596</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N25">
-        <v>0.8147880000000001</v>
+        <v>111.303427</v>
       </c>
       <c r="O25">
-        <v>0.002491533157602434</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P25">
-        <v>0.00249397735237479</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q25">
-        <v>0.3377996072359999</v>
+        <v>45.74253634933051</v>
       </c>
       <c r="R25">
-        <v>3.040196465124</v>
+        <v>274.455218095983</v>
       </c>
       <c r="S25">
-        <v>0.0001006888347886848</v>
+        <v>0.04130989970802396</v>
       </c>
       <c r="T25">
-        <v>0.00010266984842252</v>
+        <v>0.03406365033559428</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H26">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I26">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J26">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>59.61647133333334</v>
+        <v>0.1742985</v>
       </c>
       <c r="N26">
-        <v>178.849414</v>
+        <v>0.348597</v>
       </c>
       <c r="O26">
-        <v>0.546902071703026</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P26">
-        <v>0.5474385827988417</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q26">
-        <v>74.1484432804469</v>
+        <v>0.167728840938</v>
       </c>
       <c r="R26">
-        <v>667.335989524022</v>
+        <v>1.006373045628</v>
       </c>
       <c r="S26">
-        <v>0.02210162532867333</v>
+        <v>0.0001514752383728126</v>
       </c>
       <c r="T26">
-        <v>0.02253646620450538</v>
+        <v>0.0001249046739619668</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>23.42392733333334</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H27">
-        <v>70.271782</v>
+        <v>2.886924</v>
       </c>
       <c r="I27">
-        <v>0.7610945028226961</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J27">
-        <v>0.7753081633885379</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.320495</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N27">
-        <v>0.6409899999999999</v>
+        <v>0.034127</v>
       </c>
       <c r="O27">
-        <v>0.002940116641429889</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P27">
-        <v>0.001962000597822644</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q27">
-        <v>7.507251590696667</v>
+        <v>0.01094689503866667</v>
       </c>
       <c r="R27">
-        <v>45.04350954418</v>
+        <v>0.098522055348</v>
       </c>
       <c r="S27">
-        <v>0.002237706613449816</v>
+        <v>9.886096667400992E-06</v>
       </c>
       <c r="T27">
-        <v>0.001521155080065087</v>
+        <v>1.222793600719467E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H28">
+        <v>2.886924</v>
+      </c>
+      <c r="I28">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J28">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H28">
-        <v>70.271782</v>
-      </c>
-      <c r="I28">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J28">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01137566666666667</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N28">
-        <v>0.034127</v>
+        <v>239.316913</v>
       </c>
       <c r="O28">
-        <v>0.0001043566572771055</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P28">
-        <v>0.0001044590311890878</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q28">
-        <v>0.2664627893682222</v>
+        <v>76.76552663840134</v>
       </c>
       <c r="R28">
-        <v>2.398165104314</v>
+        <v>690.889739745612</v>
       </c>
       <c r="S28">
-        <v>7.942527818655713E-05</v>
+        <v>0.06932663685826453</v>
       </c>
       <c r="T28">
-        <v>8.098793962055763E-05</v>
+        <v>0.08574887618610996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>23.42392733333334</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H29">
-        <v>70.271782</v>
+        <v>2.886924</v>
       </c>
       <c r="I29">
-        <v>0.7610945028226961</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J29">
-        <v>0.7753081633885379</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>48.78764200000001</v>
+        <v>0.150414</v>
       </c>
       <c r="N29">
-        <v>146.362926</v>
+        <v>0.300828</v>
       </c>
       <c r="O29">
-        <v>0.4475619218406646</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P29">
-        <v>0.4480009802197716</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q29">
-        <v>1142.798180972682</v>
+        <v>0.144744595512</v>
       </c>
       <c r="R29">
-        <v>10285.18362875413</v>
+        <v>0.868467573072</v>
       </c>
       <c r="S29">
-        <v>0.340636918385691</v>
+        <v>0.0001307182592197192</v>
       </c>
       <c r="T29">
-        <v>0.3473388171704558</v>
+        <v>0.0001077887166516939</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H30">
+        <v>2.886924</v>
+      </c>
+      <c r="I30">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J30">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H30">
-        <v>70.271782</v>
-      </c>
-      <c r="I30">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J30">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.271596</v>
+        <v>11.020322</v>
       </c>
       <c r="N30">
-        <v>0.8147880000000001</v>
+        <v>33.060966</v>
       </c>
       <c r="O30">
-        <v>0.002491533157602434</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P30">
-        <v>0.00249397735237479</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q30">
-        <v>6.361844968024001</v>
+        <v>10.604944023176</v>
       </c>
       <c r="R30">
-        <v>57.256604712216</v>
+        <v>95.444496208584</v>
       </c>
       <c r="S30">
-        <v>0.001896292189851687</v>
+        <v>0.009577282087310856</v>
       </c>
       <c r="T30">
-        <v>0.001933601000602307</v>
+        <v>0.01184596878084915</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>23.42392733333334</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H31">
-        <v>70.271782</v>
+        <v>2.886924</v>
       </c>
       <c r="I31">
-        <v>0.7610945028226961</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J31">
-        <v>0.7753081633885379</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.61647133333334</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N31">
-        <v>178.849414</v>
+        <v>111.303427</v>
       </c>
       <c r="O31">
-        <v>0.546902071703026</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P31">
-        <v>0.5474385827988417</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q31">
-        <v>1396.45189238175</v>
+        <v>35.70272607650534</v>
       </c>
       <c r="R31">
-        <v>12568.06703143575</v>
+        <v>321.324534688548</v>
       </c>
       <c r="S31">
-        <v>0.416244160355517</v>
+        <v>0.03224298762665953</v>
       </c>
       <c r="T31">
-        <v>0.424433602197794</v>
+        <v>0.0398807742472958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H32">
+        <v>2.41589</v>
+      </c>
+      <c r="I32">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J32">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1742985</v>
+      </c>
+      <c r="N32">
+        <v>0.348597</v>
+      </c>
+      <c r="O32">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P32">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q32">
+        <v>0.140362001055</v>
+      </c>
+      <c r="R32">
+        <v>0.84217200633</v>
+      </c>
+      <c r="S32">
+        <v>0.0001267603558779151</v>
+      </c>
+      <c r="T32">
+        <v>0.0001045250767869109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H33">
+        <v>2.41589</v>
+      </c>
+      <c r="I33">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J33">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.034127</v>
+      </c>
+      <c r="O33">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.009160786447777777</v>
+      </c>
+      <c r="R33">
+        <v>0.08244707803</v>
+      </c>
+      <c r="S33">
+        <v>8.273069217550369E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.02328112275978E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H34">
+        <v>2.41589</v>
+      </c>
+      <c r="I34">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J34">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N34">
+        <v>239.316913</v>
+      </c>
+      <c r="O34">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P34">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q34">
+        <v>64.24037077195223</v>
+      </c>
+      <c r="R34">
+        <v>578.16333694757</v>
+      </c>
+      <c r="S34">
+        <v>0.0580152192158549</v>
+      </c>
+      <c r="T34">
+        <v>0.07175798617811248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H35">
+        <v>2.41589</v>
+      </c>
+      <c r="I35">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J35">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.150414</v>
+      </c>
+      <c r="N35">
+        <v>0.300828</v>
+      </c>
+      <c r="O35">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P35">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q35">
+        <v>0.12112789282</v>
+      </c>
+      <c r="R35">
+        <v>0.7267673569199999</v>
+      </c>
+      <c r="S35">
+        <v>0.0001093901104657856</v>
+      </c>
+      <c r="T35">
+        <v>9.020177970450932E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H36">
+        <v>2.41589</v>
+      </c>
+      <c r="I36">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J36">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.020322</v>
+      </c>
+      <c r="N36">
+        <v>33.060966</v>
+      </c>
+      <c r="O36">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P36">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q36">
+        <v>8.874628572193334</v>
+      </c>
+      <c r="R36">
+        <v>79.87165714974</v>
+      </c>
+      <c r="S36">
+        <v>0.008014641196620841</v>
+      </c>
+      <c r="T36">
+        <v>0.00991316623436074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H37">
+        <v>2.41589</v>
+      </c>
+      <c r="I37">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J37">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N37">
+        <v>111.303427</v>
+      </c>
+      <c r="O37">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P37">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q37">
+        <v>29.87742625055889</v>
+      </c>
+      <c r="R37">
+        <v>268.89683625503</v>
+      </c>
+      <c r="S37">
+        <v>0.02698218289687241</v>
+      </c>
+      <c r="T37">
+        <v>0.03337377904520502</v>
       </c>
     </row>
   </sheetData>
